--- a/cities/Riyadh/Riyadh.xlsx
+++ b/cities/Riyadh/Riyadh.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G185"/>
+  <dimension ref="A1:G190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al riyadh</t>
+          <t>Riyadh</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -526,7 +526,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>alriyadh</t>
+          <t>Riyadh</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Alriyadh</t>
+          <t>Riyadh</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Alriyadh</t>
+          <t>Riyadh</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ariyadh</t>
+          <t>Riyadh</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ariyadh/almalaz</t>
+          <t>Riyadh</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -682,21 +682,21 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mohammed Almozanen</t>
+          <t>mohammad Tahhan</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ZAIN</t>
+          <t>Adama Hospital</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Network Consultant</t>
+          <t>Senior programmer</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -711,27 +711,27 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>mohammed.almozanen@sa.zain.com</t>
+          <t>tahhan@adamahospital.com</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Thaer Abu Al Rob</t>
+          <t>Yasser Ali</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MDS CS</t>
+          <t>Almasad For Roads company</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Technical Manager</t>
+          <t>IT administrator</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -746,27 +746,27 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>tabualrob@mdscs.com.sa</t>
+          <t>yass_soul@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>56</v>
+        <v>315</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Abdullah Al-Howish</t>
+          <t>Majdi Mohamed</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ANB</t>
+          <t>Interkey for Computer</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Governance and Compliance Division Head</t>
+          <t>Business Development Manager</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -781,27 +781,27 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>8855@anb.com.sa</t>
+          <t>m.majdi@interkey.com.sa</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Abdurrahman Al-Jelany</t>
+          <t>Mohammed Almozanen</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Arriyadh Development Authority</t>
+          <t>ZAIN</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>System &amp; Servers Supervisor</t>
+          <t>Network Consultant</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -816,27 +816,27 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>AOJelany@arriyadh.net</t>
+          <t>mohammed.almozanen@sa.zain.com</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>145</v>
+        <v>25</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Abdulrahman AL-Nashwan</t>
+          <t>Thaer Abu Al Rob</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Imam University</t>
+          <t>MDS CS</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Prof Trinning</t>
+          <t>Technical Manager</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -851,27 +851,27 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>aanashwan@hotmail.com</t>
+          <t>tabualrob@mdscs.com.sa</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>146</v>
+        <v>56</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Syed Ahmed Shah</t>
+          <t>Abdullah Al-Howish</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Jeraisy Comp &amp; Comm Services</t>
+          <t>ANB</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Project Coordinator</t>
+          <t>Governance and Compliance Division Head</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -886,27 +886,27 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>syedshah@jeraisy.com</t>
+          <t>8855@anb.com.sa</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Mohamed Farouk Mohamed Ali</t>
+          <t>Abdurrahman Al-Jelany</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Nahil Computer Comany</t>
+          <t>Arriyadh Development Authority</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>IT Specialist</t>
+          <t>System &amp; Servers Supervisor</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -921,27 +921,27 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>m.aboaref.nhl@mobily.com.sa</t>
+          <t>AOJelany@arriyadh.net</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Mohamed Farouk Mohamed Ali</t>
+          <t>Abdulrahman AL-Nashwan</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Nahil Computer Comany</t>
+          <t>Imam University</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>IT Specialist</t>
+          <t>Prof Trinning</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -956,27 +956,27 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>himohamed@hotmail.com</t>
+          <t>aanashwan@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ahmed Ismail</t>
+          <t>Syed Ahmed Shah</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Technical Institute for health training</t>
+          <t>Jeraisy Comp &amp; Comm Services</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>IT Manager</t>
+          <t>Project Coordinator</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -991,27 +991,27 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>ibn_omer@hotmail.com</t>
+          <t>syedshah@jeraisy.com</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ahmad Jallad</t>
+          <t>Mohamed Farouk Mohamed Ali</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Netways</t>
+          <t>Nahil Computer Comany</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Business Analyst</t>
+          <t>IT Specialist</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1026,27 +1026,27 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>ajallad@netways.com.sa</t>
+          <t>m.aboaref.nhl@mobily.com.sa</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sami Zaghloul</t>
+          <t>Mohamed Farouk Mohamed Ali</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Adama</t>
+          <t>Nahil Computer Comany</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>I.T Manager</t>
+          <t>IT Specialist</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1061,27 +1061,27 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Sami@adama.com.sa</t>
+          <t>himohamed@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Fazal Ur Rehman Shah</t>
+          <t>Ahmed Ismail</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Arriyadh Development Authority</t>
+          <t>Technical Institute for health training</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Technical Consultant</t>
+          <t>IT Manager</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1096,27 +1096,27 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>fazal.shah@arriyadh.net</t>
+          <t>ibn_omer@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Shadi Dahouk</t>
+          <t>Ahmad Jallad</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ZFP-IT</t>
+          <t>Netways</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Pre-Sales Support</t>
+          <t>Business Analyst</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1131,27 +1131,27 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>sdahouk@zfp.com</t>
+          <t>ajallad@netways.com.sa</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>abdulaziz alsayyar</t>
+          <t>Sami Zaghloul</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SRCA</t>
+          <t>Adama</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>PMO manager</t>
+          <t>I.T Manager</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1166,27 +1166,27 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>sayyar@srca.org.sa</t>
+          <t>Sami@adama.com.sa</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>naser alkanhal</t>
+          <t>Fazal Ur Rehman Shah</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Ajyal D.</t>
+          <t>Arriyadh Development Authority</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>CEO</t>
+          <t>Technical Consultant</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1201,32 +1201,32 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>nk8080@gmail.com</t>
+          <t>fazal.shah@arriyadh.net</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Torki Al Mdani</t>
+          <t>Shadi Dahouk</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Electricity&amp;Cogeneration Regulatory Authority</t>
+          <t>ZFP-IT</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Head of systems an security</t>
+          <t>Pre-Sales Support</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>riyadh</t>
+          <t>Riyadh</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1236,27 +1236,27 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>tmmdani@ecra.gov.sa</t>
+          <t>sdahouk@zfp.com</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Eyad Abu Obaid</t>
+          <t>abdulaziz alsayyar</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Sunbulah</t>
+          <t>SRCA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>IT Manager</t>
+          <t>PMO manager</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1271,27 +1271,27 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>eyd_abuobaid@yahoo.com</t>
+          <t>sayyar@srca.org.sa</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ziauddin Sayed</t>
+          <t>naser alkanhal</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Dr.Sulaiman Al Habib Medical Group</t>
+          <t>Ajyal D.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Director - Information System</t>
+          <t>CEO</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1306,27 +1306,27 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>zia@hmc.com.sa</t>
+          <t>nk8080@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Abdul Mannan Mohammed</t>
+          <t>Torki Al Mdani</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Hoshan Pan Gulf</t>
+          <t>Electricity&amp;Cogeneration Regulatory Authority</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>IT Manager</t>
+          <t>Head of systems an security</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1341,27 +1341,27 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>mannan@hoshanpg.com</t>
+          <t>tmmdani@ecra.gov.sa</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Syed M. Shareef</t>
+          <t>Eyad Abu Obaid</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Najm for Insurance Services</t>
+          <t>Sunbulah</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>IT-Manager eSolution</t>
+          <t>IT Manager</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1376,27 +1376,27 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>s.shareef@najm.sa.com</t>
+          <t>eyd_abuobaid@yahoo.com</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Mazen Khalil</t>
+          <t>Ziauddin Sayed</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>MEPC</t>
+          <t>Dr.Sulaiman Al Habib Medical Group</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>IT Manager</t>
+          <t>Director - Information System</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1411,27 +1411,27 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>corner2000@hotmail.com</t>
+          <t>zia@hmc.com.sa</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Khizar Mohammed</t>
+          <t>Abdul Mannan Mohammed</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Amex Saudi Arabia</t>
+          <t>Hoshan Pan Gulf</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Head of IT Infrastructure</t>
+          <t>IT Manager</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1446,27 +1446,27 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>khizar.mohammed@americanexpress.com.sa</t>
+          <t>mannan@hoshanpg.com</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Azmi Yousef</t>
+          <t>Syed M. Shareef</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Saudi Ceramics Company</t>
+          <t>Najm for Insurance Services</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>operation manager</t>
+          <t>IT-Manager eSolution</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1481,27 +1481,27 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>azmi@saudiceramics.com</t>
+          <t>s.shareef@najm.sa.com</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ahmed Kasem</t>
+          <t>Mazen Khalil</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Ajlanbros</t>
+          <t>MEPC</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>System Administrator</t>
+          <t>IT Manager</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1516,27 +1516,27 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>ahmed_kasem@ajlanbros.com</t>
+          <t>corner2000@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Waleed AlKonaisy</t>
+          <t>Khizar Mohammed</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Herfy Foods</t>
+          <t>Amex Saudi Arabia</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>IT Manager</t>
+          <t>Head of IT Infrastructure</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1551,32 +1551,32 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>waleed@herfy.com</t>
+          <t>khizar.mohammed@americanexpress.com.sa</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>zaher hamdan</t>
+          <t>Azmi Yousef</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>mesc</t>
+          <t>Saudi Ceramics Company</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>system manager</t>
+          <t>operation manager</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>riyadh</t>
+          <t>Riyadh</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1586,27 +1586,27 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>zaher.hamdan@mesccables.com</t>
+          <t>azmi@saudiceramics.com</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ibrahim kashmiri</t>
+          <t>Ahmed Kasem</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ALAKARIA</t>
+          <t>Ajlanbros</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>IT Supervisor</t>
+          <t>System Administrator</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1621,22 +1621,22 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>ikashmiri@al-akaria.com</t>
+          <t>ahmed_kasem@ajlanbros.com</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Raed Al.Banna</t>
+          <t>Waleed AlKonaisy</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SAPAC</t>
+          <t>Herfy Foods</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1656,27 +1656,27 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>raed.banna@sapac.com.sa</t>
+          <t>waleed@herfy.com</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Mohammad Hasan</t>
+          <t>zaher hamdan</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>KSB Capital Group</t>
+          <t>mesc</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>IT Manager</t>
+          <t>system manager</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1691,27 +1691,27 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>mhasan@ksb.com.sa</t>
+          <t>zaher.hamdan@mesccables.com</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Maurice Lacanlale</t>
+          <t>ibrahim kashmiri</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Detecon Al Saudia Ltd. (Detasad)</t>
+          <t>ALAKARIA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>IT Technician</t>
+          <t>IT Supervisor</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1726,27 +1726,27 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>maurice.lacanlale@detasad.com.sa</t>
+          <t>ikashmiri@al-akaria.com</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Tariq Hasnain</t>
+          <t>Raed Al.Banna</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Nahil Computer</t>
+          <t>SAPAC</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Manager - Key Account Sales</t>
+          <t>IT Manager</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1761,32 +1761,32 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>tariqhasnain@nahil.com.sa</t>
+          <t>raed.banna@sapac.com.sa</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Abdurahman Abdalla</t>
+          <t>Mohammad Hasan</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>FARVENTURE</t>
+          <t>KSB Capital Group</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>IT MANAGER</t>
+          <t>IT Manager</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>RIYADH</t>
+          <t>Riyadh</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1796,27 +1796,27 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>abdulrahman@farevnture.com</t>
+          <t>mhasan@ksb.com.sa</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Hussam Adien Abdul-Maqsoud</t>
+          <t>Maurice Lacanlale</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Saudi Electricity Company</t>
+          <t>Detecon Al Saudia Ltd. (Detasad)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Systems Analyst</t>
+          <t>IT Technician</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1831,27 +1831,27 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>hhanafi@se.com.sa</t>
+          <t>maurice.lacanlale@detasad.com.sa</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Naser Rumman</t>
+          <t>Tariq Hasnain</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ARTIC</t>
+          <t>Nahil Computer</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>I.T.Manager</t>
+          <t>Manager - Key Account Sales</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1866,27 +1866,27 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>naserrumman@yahoo.com</t>
+          <t>tariqhasnain@nahil.com.sa</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Ramy Ahmed</t>
+          <t>Abdurahman Abdalla</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>zoofitech Co.</t>
+          <t>FARVENTURE</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>network system engineer</t>
+          <t>IT MANAGER</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1901,27 +1901,27 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>ramy@zoofitech.com</t>
+          <t>abdulrahman@farevnture.com</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Mohammad Rahmatulla Khan</t>
+          <t>Hussam Adien Abdul-Maqsoud</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SOFTLAND EST.</t>
+          <t>Saudi Electricity Company</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Sales Executive</t>
+          <t>Systems Analyst</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1936,27 +1936,27 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>mlkrahmat@hotmail.com</t>
+          <t>hhanafi@se.com.sa</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Basem AbuSalem</t>
+          <t>Naser Rumman</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ARAMEX</t>
+          <t>ARTIC</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>IT MANAGER</t>
+          <t>I.T.Manager</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1971,27 +1971,27 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Basem.AbuSalem@aramex.com</t>
+          <t>naserrumman@yahoo.com</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Humaid Mudhaffr</t>
+          <t>Ramy Ahmed</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Saudi Credit Bureau-SIMAH</t>
+          <t>zoofitech Co.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>CIO</t>
+          <t>network system engineer</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2006,27 +2006,27 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>hmudhaffr@simah.com</t>
+          <t>ramy@zoofitech.com</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Abdulaziz Musallam</t>
+          <t>Mohammad Rahmatulla Khan</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>AlNahj Consulting Company</t>
+          <t>SOFTLAND EST.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>IT Consultant</t>
+          <t>Sales Executive</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2041,27 +2041,27 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>amusallam9@hotmail.com</t>
+          <t>mlkrahmat@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Khalid Al-Zahrani</t>
+          <t>Basem AbuSalem</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Arabian Medical Product MFG Co.- Enayah</t>
+          <t>ARAMEX</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>IT and Perssonel Manager</t>
+          <t>IT MANAGER</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2076,27 +2076,27 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>kalzahrani@enayah.com</t>
+          <t>Basem.AbuSalem@aramex.com</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Dia Asmar</t>
+          <t>Humaid Mudhaffr</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Specialized Technical Services</t>
+          <t>Saudi Credit Bureau-SIMAH</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Sales Manager</t>
+          <t>CIO</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2111,27 +2111,27 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>dia.asmar@sts.com.jo</t>
+          <t>hmudhaffr@simah.com</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Sami Abohilal</t>
+          <t>Abdulaziz Musallam</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Ministry of Water &amp; Electricty</t>
+          <t>AlNahj Consulting Company</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>IT General Manager</t>
+          <t>IT Consultant</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2146,27 +2146,27 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>sabohilal@mowe.gov.sa</t>
+          <t>amusallam9@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Engr. Mohammed Khalifah AL Khalifah</t>
+          <t>Khalid Al-Zahrani</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Raqeeb AL Riyadh Technology</t>
+          <t>Arabian Medical Product MFG Co.- Enayah</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>General Manager</t>
+          <t>IT and Perssonel Manager</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2181,27 +2181,27 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>khalifa@Raqeeb-me.com</t>
+          <t>kalzahrani@enayah.com</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Maher Ibrahim</t>
+          <t>Dia Asmar</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Saudi Electricity Company</t>
+          <t>Specialized Technical Services</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Systems Analyst</t>
+          <t>Sales Manager</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2216,27 +2216,27 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>MHIbrahim@se.com.sa</t>
+          <t>dia.asmar@sts.com.jo</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Waleed ALKalabi</t>
+          <t>Sami Abohilal</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>King Fahad Security College</t>
+          <t>Ministry of Water &amp; Electricty</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Head Of Networks Section</t>
+          <t>IT General Manager</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2251,27 +2251,27 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>waleed@kfsc.edu.sa</t>
+          <t>sabohilal@mowe.gov.sa</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Hussain Alsaiari</t>
+          <t>Engr. Mohammed Khalifah AL Khalifah</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>KACST</t>
+          <t>Raqeeb AL Riyadh Technology</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Head of System Dep.</t>
+          <t>General Manager</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2286,27 +2286,27 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>alsaiari@kacst.edu.sa</t>
+          <t>khalifa@Raqeeb-me.com</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Thaer Abu Al Rob</t>
+          <t>Maher Ibrahim</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>MDS CS</t>
+          <t>Saudi Electricity Company</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Technical Manager</t>
+          <t>Systems Analyst</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2321,27 +2321,27 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>tabualrob@mdscs.com.sa</t>
+          <t>MHIbrahim@se.com.sa</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ABDULRAHMAN AL MUTAIRI</t>
+          <t>Waleed ALKalabi</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>MOI-GDNC</t>
+          <t>King Fahad Security College</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>IT Manager Deputy</t>
+          <t>Head Of Networks Section</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2356,27 +2356,27 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>ahm@gdnc.gov.sa</t>
+          <t>waleed@kfsc.edu.sa</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Tariq Haznawi</t>
+          <t>Hussain Alsaiari</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>IST</t>
+          <t>KACST</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Projects Manager</t>
+          <t>Head of System Dep.</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2391,27 +2391,27 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>T.Haznawi@ist.com.sa</t>
+          <t>alsaiari@kacst.edu.sa</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>mamdoh alotaibi</t>
+          <t>Thaer Abu Al Rob</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>NIC</t>
+          <t>MDS CS</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Asst.Director ForAdmin And Finance</t>
+          <t>Technical Manager</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2426,27 +2426,27 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>ADGA@NIC.GOV.SA</t>
+          <t>tabualrob@mdscs.com.sa</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Nedal Rayyan</t>
+          <t>ABDULRAHMAN AL MUTAIRI</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Arabian Advanced Systems</t>
+          <t>MOI-GDNC</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>IT Manager</t>
+          <t>IT Manager Deputy</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2461,27 +2461,27 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>nrayyan@naseej.com.sa</t>
+          <t>ahm@gdnc.gov.sa</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Essam Murad</t>
+          <t>Tariq Haznawi</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>GulgNet Solutions</t>
+          <t>IST</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Area Manager</t>
+          <t>Projects Manager</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2496,27 +2496,27 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>emurad@gulfnet-solutions.com</t>
+          <t>T.Haznawi@ist.com.sa</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Tamer Gad</t>
+          <t>mamdoh alotaibi</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ZAIN KSA</t>
+          <t>NIC</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Customer Support Engineer</t>
+          <t>Asst.Director ForAdmin And Finance</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2531,27 +2531,27 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>tamer.gad@sa.zain.com</t>
+          <t>ADGA@NIC.GOV.SA</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Wahid Hammami</t>
+          <t>Nedal Rayyan</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Saudi Aramco</t>
+          <t>Arabian Advanced Systems</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>MOPM IT Manager</t>
+          <t>IT Manager</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2566,27 +2566,27 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>wahid.hammami@aramco.com</t>
+          <t>nrayyan@naseej.com.sa</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Khaled Bakkour</t>
+          <t>Essam Murad</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>BMG Financial Group</t>
+          <t>GulgNet Solutions</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Head of IT</t>
+          <t>Area Manager</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2601,27 +2601,27 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>khaled@bmg.com.sa</t>
+          <t>emurad@gulfnet-solutions.com</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Mohammed Kafaji</t>
+          <t>Tamer Gad</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Alfaisal University</t>
+          <t>ZAIN KSA</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>IT Director</t>
+          <t>Customer Support Engineer</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2636,27 +2636,27 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>mkafaji@alfaisal.edu</t>
+          <t>tamer.gad@sa.zain.com</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Ramzi Al-Thumairy</t>
+          <t>Wahid Hammami</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>AwalNet</t>
+          <t>Saudi Aramco</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>IT Director</t>
+          <t>MOPM IT Manager</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2671,27 +2671,27 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>rthumairy@awalnet.com</t>
+          <t>wahid.hammami@aramco.com</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Mohammed Jaamour</t>
+          <t>Khaled Bakkour</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>ZFP-IT</t>
+          <t>BMG Financial Group</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Area BDM</t>
+          <t>Head of IT</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2706,32 +2706,32 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>mjaamour@zfp.com</t>
+          <t>khaled@bmg.com.sa</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Mohammed Badaoud</t>
+          <t>Mohammed Kafaji</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>MOFA</t>
+          <t>Alfaisal University</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Consultant</t>
+          <t>IT Director</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>rIYADH</t>
+          <t>Riyadh</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2741,27 +2741,27 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>mbadaoud@mofa.mail.gov.sa</t>
+          <t>mkafaji@alfaisal.edu</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Hussam Al-Farra</t>
+          <t>Ramzi Al-Thumairy</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>ARAMEX International</t>
+          <t>AwalNet</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>IT Team Member</t>
+          <t>IT Director</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2776,27 +2776,27 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Hussam.alfarra@aramex.com</t>
+          <t>rthumairy@awalnet.com</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Mohammed Al-Ghannam</t>
+          <t>Mohammed Jaamour</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Ministry of Higher education</t>
+          <t>ZFP-IT</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>IT infrastructure director</t>
+          <t>Area BDM</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2811,27 +2811,27 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>mghannam@mohe.gov.sa</t>
+          <t>mjaamour@zfp.com</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Wael Abunameh</t>
+          <t>Mohammed Badaoud</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Netways</t>
+          <t>MOFA</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Sales Manager</t>
+          <t>Consultant</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2846,27 +2846,27 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>wael@netways.com.sa</t>
+          <t>mbadaoud@mofa.mail.gov.sa</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Ammar Abu Al-Haija</t>
+          <t>Hussam Al-Farra</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Alam Al-Ghad trading &amp; Construction</t>
+          <t>ARAMEX International</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Cheif Accountant</t>
+          <t>IT Team Member</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2881,27 +2881,27 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>ammarmusbah@yahoo.com</t>
+          <t>Hussam.alfarra@aramex.com</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Jasem Abu Al-Haija</t>
+          <t>Mohammed Al-Ghannam</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Alam Al-Ghad trading &amp; Construction</t>
+          <t>Ministry of Higher education</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Excutive Manager</t>
+          <t>IT infrastructure director</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2916,27 +2916,27 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>jasemusbah@hotmail.com</t>
+          <t>mghannam@mohe.gov.sa</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Mohammed Ossaimee</t>
+          <t>Wael Abunameh</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Saudi Business Machines</t>
+          <t>Netways</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Presales Systems Engineer</t>
+          <t>Sales Manager</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2951,27 +2951,27 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>mossaimee@sbm.com.sa</t>
+          <t>wael@netways.com.sa</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Ghazi Al-Harbi</t>
+          <t>Ammar Abu Al-Haija</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Alaquid Trading</t>
+          <t>Alam Al-Ghad trading &amp; Construction</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Managing Director</t>
+          <t>Cheif Accountant</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2986,32 +2986,32 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>alaquid@saudi.net.sa</t>
+          <t>ammarmusbah@yahoo.com</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>mansour alswayeh</t>
+          <t>Jasem Abu Al-Haija</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>ministry of commerce &amp; industry</t>
+          <t>Alam Al-Ghad trading &amp; Construction</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>it manager</t>
+          <t>Excutive Manager</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>riyadh</t>
+          <t>Riyadh</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3021,32 +3021,32 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>mswayeh@mci.gov.sa</t>
+          <t>jasemusbah@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Mohammed tahir</t>
+          <t>Mohammed Ossaimee</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Detecon al saudia co ltd</t>
+          <t>Saudi Business Machines</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Computer dept</t>
+          <t>Presales Systems Engineer</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>riyadh</t>
+          <t>Riyadh</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3056,27 +3056,27 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Tahir_rabani@yahoo.com</t>
+          <t>mossaimee@sbm.com.sa</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>khaled Hijjawi</t>
+          <t>Ghazi Al-Harbi</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Ejada Systems</t>
+          <t>Alaquid Trading</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Sales Manager</t>
+          <t>Managing Director</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3091,27 +3091,27 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>khijjawi@ejada.com</t>
+          <t>alaquid@saudi.net.sa</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Jameer Sayyed</t>
+          <t>mansour alswayeh</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>ABANA Enterprises Group Co.</t>
+          <t>ministry of commerce &amp; industry</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Network Manager</t>
+          <t>it manager</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3126,27 +3126,27 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>sjameer@abana.com.sa</t>
+          <t>mswayeh@mci.gov.sa</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Alaa Sharabasi</t>
+          <t>Mohammed tahir</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Jeraisy Computers &amp; Communications Company</t>
+          <t>Detecon al saudia co ltd</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Business Development Director</t>
+          <t>Computer dept</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3161,27 +3161,27 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>asharabasi@jeraisy.com</t>
+          <t>Tahir_rabani@yahoo.com</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Malik Shbair</t>
+          <t>khaled Hijjawi</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Zuhair Fayez Information Technology</t>
+          <t>Ejada Systems</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Client Representative</t>
+          <t>Sales Manager</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3196,27 +3196,27 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>mshbair@zfp.com</t>
+          <t>khijjawi@ejada.com</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Malik Shbair</t>
+          <t>Jameer Sayyed</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Zuhair Fayez Information Technology</t>
+          <t>ABANA Enterprises Group Co.</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Client Representative</t>
+          <t>Network Manager</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3231,27 +3231,27 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>mshbar@zfp.com</t>
+          <t>sjameer@abana.com.sa</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Yakob Kafina</t>
+          <t>Alaa Sharabasi</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Jeraisy</t>
+          <t>Jeraisy Computers &amp; Communications Company</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Products &amp; Marketing Director</t>
+          <t>Business Development Director</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3266,27 +3266,27 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>ykafina@jeraisy.com</t>
+          <t>asharabasi@jeraisy.com</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Aadham Junaidallah</t>
+          <t>Malik Shbair</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Othaim Markets</t>
+          <t>Zuhair Fayez Information Technology</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>CIO</t>
+          <t>Client Representative</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3301,27 +3301,27 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>agj@acm.org</t>
+          <t>mshbair@zfp.com</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Fadi Toumeh</t>
+          <t>Malik Shbair</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Ejada Systems Ltd.</t>
+          <t>Zuhair Fayez Information Technology</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Account Manager</t>
+          <t>Client Representative</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3336,27 +3336,27 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>ftoumeh@ejada.com</t>
+          <t>mshbar@zfp.com</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Bassam Salet</t>
+          <t>Yakob Kafina</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Hatco</t>
+          <t>Jeraisy</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Computer Eng.</t>
+          <t>Products &amp; Marketing Director</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3371,32 +3371,32 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>bassam@hatco.com.sa</t>
+          <t>ykafina@jeraisy.com</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>motaz mohammed</t>
+          <t>Aadham Junaidallah</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>boudl</t>
+          <t>Othaim Markets</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>It Manager</t>
+          <t>CIO</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>riyadh</t>
+          <t>Riyadh</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3406,27 +3406,27 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>moataz@boudl.com</t>
+          <t>agj@acm.org</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Bassam Shajrawi</t>
+          <t>Fadi Toumeh</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>yamama cement Co.</t>
+          <t>Ejada Systems Ltd.</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Data Center Head</t>
+          <t>Account Manager</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3441,27 +3441,27 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>b.shajrawi@yamamacement.com</t>
+          <t>ftoumeh@ejada.com</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Abdullah Al-Howish</t>
+          <t>Bassam Salet</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>ANB</t>
+          <t>Hatco</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Governance and Compliance Division Head</t>
+          <t>Computer Eng.</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3476,27 +3476,27 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>8855@anb.com.sa</t>
+          <t>bassam@hatco.com.sa</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Shaik Maqbool Basha</t>
+          <t>motaz mohammed</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Al Jazeerah Shopping Center</t>
+          <t>boudl</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>M.I.S Manager</t>
+          <t>It Manager</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3511,32 +3511,32 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>jazeerahshopping@hotmail.com</t>
+          <t>moataz@boudl.com</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>farhan uddin</t>
+          <t>Bassam Shajrawi</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Detecon al saudia</t>
+          <t>yamama cement Co.</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>network engineer</t>
+          <t>Data Center Head</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>riyadh</t>
+          <t>Riyadh</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3546,32 +3546,32 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>amfarhan81@hotmail.com</t>
+          <t>b.shajrawi@yamamacement.com</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Mohammad Hussein</t>
+          <t>Abdullah Al-Howish</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Ultra vision</t>
+          <t>ANB</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>IT Manager</t>
+          <t>Governance and Compliance Division Head</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>riyadh</t>
+          <t>Riyadh</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -3581,67 +3581,67 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>eng_mhussein@ultra-visions.com</t>
+          <t>8855@anb.com.sa</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>fathy kroush</t>
+          <t>Shaik Maqbool Basha</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>ultra-visions</t>
+          <t>Al Jazeerah Shopping Center</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>technical support manager</t>
+          <t>M.I.S Manager</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>riyadh</t>
+          <t>Riyadh</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>fathykroush10@hotmail.com</t>
+          <t>jazeerahshopping@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>MOHAMMED SHAMS KHAN</t>
+          <t>farhan uddin</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>AL AMTHAL LEASING AND FINANCING CO.</t>
+          <t>Detecon al saudia</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Sr.NETWORK ADMINISTRATOR</t>
+          <t>network engineer</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>RIYADH</t>
+          <t>Riyadh</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -3651,27 +3651,27 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>mkhan@la-amthal.com.sa</t>
+          <t>amfarhan81@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Badi Alhalbouni</t>
+          <t>Mohammad Hussein</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>SIT</t>
+          <t>Ultra vision</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Sales Manager</t>
+          <t>IT Manager</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3686,27 +3686,27 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>badi.alhalbouni@gmail.com</t>
+          <t>eng_mhussein@ultra-visions.com</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>mohammed fasi ahmed</t>
+          <t>fathy kroush</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>al saghyir company</t>
+          <t>ultra-visions</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>IT- Manager</t>
+          <t>technical support manager</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3716,32 +3716,32 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>fasi.ahmed@al-saghyir.net</t>
+          <t>fathykroush10@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Siraj Jameel</t>
+          <t>MOHAMMED SHAMS KHAN</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Saudi Ericsson</t>
+          <t>AL AMTHAL LEASING AND FINANCING CO.</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Analyst Programmer</t>
+          <t>Sr.NETWORK ADMINISTRATOR</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3756,32 +3756,32 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>siraj.jameel@saudi-ericsson.com</t>
+          <t>mkhan@la-amthal.com.sa</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>khalifah AlAnazy</t>
+          <t>Badi Alhalbouni</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>king fahd medical city</t>
+          <t>SIT</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>communication division manager</t>
+          <t>Sales Manager</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>riyadh</t>
+          <t>Riyadh</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -3791,27 +3791,27 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>khalanazy@kfmc.med.sa</t>
+          <t>badi.alhalbouni@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Ahmad Taqash</t>
+          <t>mohammed fasi ahmed</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Dimension Data</t>
+          <t>al saghyir company</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Business Development Manager</t>
+          <t>IT- Manager</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3826,27 +3826,27 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>ahmad.taqash@sa.dimensiondata.com</t>
+          <t>fasi.ahmed@al-saghyir.net</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Saeed Al-Kahatani</t>
+          <t>Siraj Jameel</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Saudi Hollandi Bank</t>
+          <t>Saudi Ericsson</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>IT Manager - Head of application support</t>
+          <t>Analyst Programmer</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3861,27 +3861,27 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>salkahtani@shb.com.sa</t>
+          <t>siraj.jameel@saudi-ericsson.com</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Manny Mendoza</t>
+          <t>khalifah AlAnazy</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Supreme Foods Group</t>
+          <t>king fahd medical city</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>IT Infrastructure Manager</t>
+          <t>communication division manager</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3896,27 +3896,27 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>manny.mendozajr@sfgarabia.com</t>
+          <t>khalanazy@kfmc.med.sa</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Hatem Al Sagga</t>
+          <t>Ahmad Taqash</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Atheeb Group</t>
+          <t>Dimension Data</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>IT Development Manager</t>
+          <t>Business Development Manager</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3931,27 +3931,27 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>halsagga@atheeb.com</t>
+          <t>ahmad.taqash@sa.dimensiondata.com</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Abubakr Mohammed</t>
+          <t>Saeed Al-Kahatani</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Advance Solutions</t>
+          <t>Saudi Hollandi Bank</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>IT Consultant</t>
+          <t>IT Manager - Head of application support</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3966,27 +3966,27 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>info@as.com.sa</t>
+          <t>salkahtani@shb.com.sa</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Mohammad Fahim Ibrahim</t>
+          <t>Manny Mendoza</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Veolia Water Solutions &amp; Technologies</t>
+          <t>Supreme Foods Group</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>IT Manager</t>
+          <t>IT Infrastructure Manager</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4001,27 +4001,27 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>fahim.ibrahim@veoliawater.com</t>
+          <t>manny.mendozajr@sfgarabia.com</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Amgad Sanad</t>
+          <t>Hatem Al Sagga</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>LINKdotNET</t>
+          <t>Atheeb Group</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Presales Technical Consultant</t>
+          <t>IT Development Manager</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4036,27 +4036,27 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>amgad.sanad@mail.link.net</t>
+          <t>halsagga@atheeb.com</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Jalaluddin A. Al-Rifaei</t>
+          <t>Abubakr Mohammed</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>SWCC : Saline Water Conversion Co.</t>
+          <t>Advance Solutions</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Chief Information Security Officer</t>
+          <t>IT Consultant</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4071,27 +4071,27 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>jrifae@swcc.gov.sa</t>
+          <t>info@as.com.sa</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Hashim Mahmood</t>
+          <t>Mohammad Fahim Ibrahim</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Fal Holdings Arabia Co. Ltd.</t>
+          <t>Veolia Water Solutions &amp; Technologies</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Network Manager</t>
+          <t>IT Manager</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4106,27 +4106,27 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>hashim@falgroup.com.sa</t>
+          <t>fahim.ibrahim@veoliawater.com</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Awad Mohamed</t>
+          <t>Amgad Sanad</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Inmaia For RealEstate</t>
+          <t>LINKdotNET</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>IT Manager</t>
+          <t>Presales Technical Consultant</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4141,27 +4141,27 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>awad@inmaia.com</t>
+          <t>amgad.sanad@mail.link.net</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Saad AlShahrani</t>
+          <t>Jalaluddin A. Al-Rifaei</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>MAWHIBA</t>
+          <t>SWCC : Saline Water Conversion Co.</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Operations &amp; Maintenance Director</t>
+          <t>Chief Information Security Officer</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4176,27 +4176,27 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>sshahrani@mawhiba.org.sa</t>
+          <t>jrifae@swcc.gov.sa</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Ziad AlSuhaibani</t>
+          <t>Hashim Mahmood</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Alhabib Realestates</t>
+          <t>Fal Holdings Arabia Co. Ltd.</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Mohammad Al Habib Real Estate</t>
+          <t>Network Manager</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4211,32 +4211,32 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>zsuhaibani@alhabibinv.com</t>
+          <t>hashim@falgroup.com.sa</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>farhan uddin</t>
+          <t>Awad Mohamed</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Detecon al saudia</t>
+          <t>Inmaia For RealEstate</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>network engineer</t>
+          <t>IT Manager</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>riyadh</t>
+          <t>Riyadh</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -4246,32 +4246,32 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>farhan.uddin@detasad.com.sa</t>
+          <t>awad@inmaia.com</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>NAEEM AHMED</t>
+          <t>Saad AlShahrani</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>GS1 SAUDI ARABIA</t>
+          <t>MAWHIBA</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>SOLUTIONS ARCHITECTURE MANAGER</t>
+          <t>Operations &amp; Maintenance Director</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>RIYADH</t>
+          <t>Riyadh</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -4281,32 +4281,32 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>nahmed@csc.org.sa</t>
+          <t>sshahrani@mawhiba.org.sa</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>khalid al-saikhan</t>
+          <t>Ziad AlSuhaibani</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>computer club</t>
+          <t>Alhabib Realestates</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>general manager</t>
+          <t>Mohammad Al Habib Real Estate</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>riyadh</t>
+          <t>Riyadh</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -4316,27 +4316,27 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>alsaikhan@hotmail.com</t>
+          <t>zsuhaibani@alhabibinv.com</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>khaled shalaby</t>
+          <t>farhan uddin</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Technology Touches</t>
+          <t>Detecon al saudia</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>IT Manager</t>
+          <t>network engineer</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4351,27 +4351,27 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>ksaeid@tt.com.sa</t>
+          <t>farhan.uddin@detasad.com.sa</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Othman Alrobaish</t>
+          <t>NAEEM AHMED</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Alhokair group</t>
+          <t>GS1 SAUDI ARABIA</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>IT Director</t>
+          <t>SOLUTIONS ARCHITECTURE MANAGER</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4386,27 +4386,27 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>netonair@gmail.com</t>
+          <t>nahmed@csc.org.sa</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Koussay Hammoudeh</t>
+          <t>khalid al-saikhan</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Injaz Development</t>
+          <t>computer club</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>IT Manager</t>
+          <t>general manager</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -4421,27 +4421,27 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>koussay@injaz.com</t>
+          <t>alsaikhan@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Umar Khan</t>
+          <t>khaled shalaby</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>SISCOM</t>
+          <t>Technology Touches</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>CRM Consultant</t>
+          <t>IT Manager</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -4456,27 +4456,27 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>ukhan@siscom.com.sa</t>
+          <t>ksaeid@tt.com.sa</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Mohammad Wadaan</t>
+          <t>Othman Alrobaish</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Saline Water Conversion Corp</t>
+          <t>Alhokair group</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>System Administration Unit Supervisor</t>
+          <t>IT Director</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4491,27 +4491,27 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>malwadaan@swcc.gov.sa</t>
+          <t>netonair@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Fareed Ezzedin</t>
+          <t>Koussay Hammoudeh</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>HASIB</t>
+          <t>Injaz Development</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Innovation,R&amp;D Manager</t>
+          <t>IT Manager</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4526,32 +4526,32 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>fareed.ezzedin@hasib.com.sa</t>
+          <t>koussay@injaz.com</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Ashraf zaitoun</t>
+          <t>Umar Khan</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Technology partners</t>
+          <t>SISCOM</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>sales manager</t>
+          <t>CRM Consultant</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>riyadh</t>
+          <t>Riyadh</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -4561,27 +4561,27 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>ashrafz@techpartnersme.com</t>
+          <t>ukhan@siscom.com.sa</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Omar Ebaid</t>
+          <t>Mohammad Wadaan</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Interactive Saudi Arabia</t>
+          <t>Saline Water Conversion Corp</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>System Administration Unit Supervisor</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -4596,27 +4596,27 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>oebaid@il.com.sa</t>
+          <t>malwadaan@swcc.gov.sa</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>maher abdullah</t>
+          <t>Fareed Ezzedin</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>OgerSystems</t>
+          <t>HASIB</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Corporate Portal Sales Manager</t>
+          <t>Innovation,R&amp;D Manager</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4631,17 +4631,17 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>mahera@ogersystems.com</t>
+          <t>fareed.ezzedin@hasib.com.sa</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Ahmed Ghaith</t>
+          <t>Ashraf zaitoun</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4651,7 +4651,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Sales Account Manager</t>
+          <t>sales manager</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -4666,22 +4666,22 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>aghaith@techpartnersme.com</t>
+          <t>ashrafz@techpartnersme.com</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Ashraf Judeh</t>
+          <t>Omar Ebaid</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Estarta Software Solutions</t>
+          <t>Interactive Saudi Arabia</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -4701,27 +4701,27 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>ashrafj@estartasolutions.com</t>
+          <t>oebaid@il.com.sa</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Hazem Hamza</t>
+          <t>maher abdullah</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>SCS</t>
+          <t>OgerSystems</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>Corporate Portal Sales Manager</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -4736,27 +4736,27 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>hhamza@scs.com.sa</t>
+          <t>mahera@ogersystems.com</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Mohammed Abu Deeb</t>
+          <t>Ahmed Ghaith</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Oger Systems</t>
+          <t>Technology partners</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>IT and Support Manager</t>
+          <t>Sales Account Manager</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -4771,27 +4771,27 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>mohammedt@ogersystems.com</t>
+          <t>aghaith@techpartnersme.com</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Mohammed Abuznaid</t>
+          <t>Ashraf Judeh</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Oger Systems</t>
+          <t>Estarta Software Solutions</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>ITS Division Manager</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -4806,27 +4806,27 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>mabuznaid@ogersystems.com</t>
+          <t>ashrafj@estartasolutions.com</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Syed Aijaz</t>
+          <t>Hazem Hamza</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Abdullatif Alissa Group Co.</t>
+          <t>SCS</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Techincial Manager</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -4841,27 +4841,27 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>aijaz@alissa-auto.com</t>
+          <t>hhamza@scs.com.sa</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Samer Halawi</t>
+          <t>Mohammed Abu Deeb</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>EJADA SYSTEMS</t>
+          <t>Oger Systems</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>PRODUCT MANAGER</t>
+          <t>IT and Support Manager</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -4876,27 +4876,27 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>shalawi@ejada.com</t>
+          <t>mohammedt@ogersystems.com</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Haithem AlFaraj</t>
+          <t>Mohammed Abuznaid</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Mobily</t>
+          <t>Oger Systems</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>IT Manager</t>
+          <t>ITS Division Manager</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -4911,27 +4911,27 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>h.alfaraj@mobily.com.sa</t>
+          <t>mabuznaid@ogersystems.com</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Mohammed Athif Khalee</t>
+          <t>Syed Aijaz</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>hp</t>
+          <t>Abdullatif Alissa Group Co.</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Team Lead</t>
+          <t>Techincial Manager</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -4946,27 +4946,27 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>athif.mohammed@hp.com</t>
+          <t>aijaz@alissa-auto.com</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Mohammed Athif Khalee</t>
+          <t>Samer Halawi</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>hp</t>
+          <t>EJADA SYSTEMS</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Team Lead</t>
+          <t>PRODUCT MANAGER</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -4981,27 +4981,27 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>akhaleel@sadad.com</t>
+          <t>shalawi@ejada.com</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Salah alomair</t>
+          <t>Haithem AlFaraj</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>NGHA</t>
+          <t>Mobily</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Director Corporate Comunication</t>
+          <t>IT Manager</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5016,27 +5016,27 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>omairs@ngha.comsa</t>
+          <t>h.alfaraj@mobily.com.sa</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Abdulrahman AlFawaz</t>
+          <t>Mohammed Athif Khalee</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>King Faisal Hospital &amp; Research Center</t>
+          <t>hp</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Clinical Computing Manager</t>
+          <t>Team Lead</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5051,27 +5051,27 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>alfawaz@kfshrc.edu.sa</t>
+          <t>athif.mohammed@hp.com</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>sami alturki</t>
+          <t>Mohammed Athif Khalee</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>ITC</t>
+          <t>hp</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>IT Diretor</t>
+          <t>Team Lead</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -5086,27 +5086,27 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>salturki@itc.net.sa</t>
+          <t>akhaleel@sadad.com</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Aamir Nassim</t>
+          <t>Salah alomair</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Alrabie</t>
+          <t>NGHA</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>IT Operations Manager</t>
+          <t>Director Corporate Comunication</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -5121,27 +5121,27 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>aamir@alrabie.com</t>
+          <t>omairs@ngha.comsa</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Ahmad Suliman</t>
+          <t>Abdulrahman AlFawaz</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Bright Star Trading Co. LtD</t>
+          <t>King Faisal Hospital &amp; Research Center</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Product Manager</t>
+          <t>Clinical Computing Manager</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -5156,27 +5156,27 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>ahmads@stl.com.sa</t>
+          <t>alfawaz@kfshrc.edu.sa</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Ahmed Al Johani</t>
+          <t>sami alturki</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>SAPTCO</t>
+          <t>ITC</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>IT Director</t>
+          <t>IT Diretor</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -5191,32 +5191,32 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>aljohaniaa@saptco.com.sa</t>
+          <t>salturki@itc.net.sa</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>AHMED ALNASSER</t>
+          <t>Aamir Nassim</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>SABIC</t>
+          <t>Alrabie</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>LEAD SPECIALIST</t>
+          <t>IT Operations Manager</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>RIYADH</t>
+          <t>Riyadh</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -5226,27 +5226,27 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>ALNASSER@SABIC.COM</t>
+          <t>aamir@alrabie.com</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Mohammad Anwaruddin</t>
+          <t>Ahmad Suliman</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Zoofitech</t>
+          <t>Bright Star Trading Co. LtD</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>IT Manager</t>
+          <t>Product Manager</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -5261,27 +5261,27 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>anwar@zoofitech.com</t>
+          <t>ahmads@stl.com.sa</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Ahmed Taman</t>
+          <t>Ahmed Al Johani</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Al Sayed Sons Com</t>
+          <t>SAPTCO</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>IT Manager</t>
+          <t>IT Director</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -5296,32 +5296,32 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>a.taman@alsayedsons.com</t>
+          <t>aljohaniaa@saptco.com.sa</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>mohamed salem</t>
+          <t>AHMED ALNASSER</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>afaqy</t>
+          <t>SABIC</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>I.T manager</t>
+          <t>LEAD SPECIALIST</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>riyadh</t>
+          <t>Riyadh</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -5331,27 +5331,27 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>ms@afaqy.com</t>
+          <t>ALNASSER@SABIC.COM</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Abdullah Alkhedher</t>
+          <t>Mohammad Anwaruddin</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>SWCC</t>
+          <t>Zoofitech</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>SWCC e-TP Director</t>
+          <t>IT Manager</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -5366,27 +5366,27 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>aalkhedher@swcc.gov.sa</t>
+          <t>anwar@zoofitech.com</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>abdelaziz hamada</t>
+          <t>Ahmed Taman</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Arab open university</t>
+          <t>Al Sayed Sons Com</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>LMS Administrator</t>
+          <t>IT Manager</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -5401,27 +5401,27 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>abdelaziz_it@arabou.edu.sa</t>
+          <t>a.taman@alsayedsons.com</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ahmed anwar</t>
+          <t>mohamed salem</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>alrajhi bank</t>
+          <t>afaqy</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>It manager</t>
+          <t>I.T manager</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -5436,27 +5436,27 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>ahmed_anwar@alrajhibank.com.sa</t>
+          <t>ms@afaqy.com</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Abdulaziz Al-Arfaj</t>
+          <t>Abdullah Alkhedher</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>ACWA Power International</t>
+          <t>SWCC</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>IT Manager</t>
+          <t>SWCC e-TP Director</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -5471,27 +5471,27 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>aaalarfaj@acwapower.com</t>
+          <t>aalkhedher@swcc.gov.sa</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Ahmed AlZikan</t>
+          <t>abdelaziz hamada</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>BANK ALBILAD</t>
+          <t>Arab open university</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Alternate Channels Applications Department Manager</t>
+          <t>LMS Administrator</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -5506,32 +5506,32 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>aalzikan@bankalbilad.com.sa</t>
+          <t>abdelaziz_it@arabou.edu.sa</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ahmed kamal</t>
+          <t>ahmed anwar</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>nahil computer company</t>
+          <t>alrajhi bank</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>system engineer</t>
+          <t>It manager</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>riyadh</t>
+          <t>Riyadh</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -5541,27 +5541,27 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>gomaa@nahil.com.sa</t>
+          <t>ahmed_anwar@alrajhibank.com.sa</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Ahmed Hammam</t>
+          <t>Abdulaziz Al-Arfaj</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Sara Holding</t>
+          <t>ACWA Power International</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>System Development Manager</t>
+          <t>IT Manager</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -5576,27 +5576,27 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>ahmed_hammam70@yahoo.com</t>
+          <t>aaalarfaj@acwapower.com</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Syed Akmal Basha</t>
+          <t>Ahmed AlZikan</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Nahil Computer</t>
+          <t>BANK ALBILAD</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>IT Manager</t>
+          <t>Alternate Channels Applications Department Manager</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -5611,27 +5611,27 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>akmal@nahil.com.sa</t>
+          <t>aalzikan@bankalbilad.com.sa</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Ibrahim Al-Banna</t>
+          <t>ahmed kamal</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Malath Insurance and Reinsurance Company</t>
+          <t>nahil computer company</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>IT Manager</t>
+          <t>system engineer</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -5646,27 +5646,27 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>i.banna@malath.com.sa</t>
+          <t>gomaa@nahil.com.sa</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Adel Asiri</t>
+          <t>Ahmed Hammam</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Mirosoft</t>
+          <t>Sara Holding</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Technical Account Manager</t>
+          <t>System Development Manager</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -5681,27 +5681,27 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>aasiri@microsoft.com</t>
+          <t>ahmed_hammam70@yahoo.com</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Ra'ed AlDwood</t>
+          <t>Syed Akmal Basha</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Arab National Bank</t>
+          <t>Nahil Computer</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Head of Systems Services Dept</t>
+          <t>IT Manager</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -5716,32 +5716,32 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>8176@anb.com.sa</t>
+          <t>akmal@nahil.com.sa</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Ahmed Diry</t>
+          <t>Ibrahim Al-Banna</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Awalnet Solutions</t>
+          <t>Malath Insurance and Reinsurance Company</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Pre-Sales Engineer</t>
+          <t>IT Manager</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>riyadh</t>
+          <t>Riyadh</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -5751,27 +5751,27 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>adiry@awalnet.com</t>
+          <t>i.banna@malath.com.sa</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>A.Aziz Eshager</t>
+          <t>Adel Asiri</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Zaid Alhussain Group</t>
+          <t>Mirosoft</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>IT Manager</t>
+          <t>Technical Account Manager</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -5786,27 +5786,27 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>a.eshager@zaidg.com</t>
+          <t>aasiri@microsoft.com</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Nader Anabtawi</t>
+          <t>Ra'ed AlDwood</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>KACST</t>
+          <t>Arab National Bank</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>IT Consultant</t>
+          <t>Head of Systems Services Dept</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -5821,32 +5821,32 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>nader@kacst.edu.sa</t>
+          <t>8176@anb.com.sa</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>badria al moutire</t>
+          <t>Ahmed Diry</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>4systems</t>
+          <t>Awalnet Solutions</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Mar</t>
+          <t>Pre-Sales Engineer</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>riyadh</t>
+          <t>Riyadh</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -5856,27 +5856,27 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>badria@4-sysit.com</t>
+          <t>adiry@awalnet.com</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Hisham Muqbel</t>
+          <t>A.Aziz Eshager</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>4-systems</t>
+          <t>Zaid Alhussain Group</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Projects manager</t>
+          <t>IT Manager</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -5891,27 +5891,27 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>hisham.muqbel@4-sysit.com</t>
+          <t>a.eshager@zaidg.com</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Areej Abukar</t>
+          <t>Nader Anabtawi</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>InnoKAT-KSA</t>
+          <t>KACST</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Senior SharePoint Consultant</t>
+          <t>IT Consultant</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -5926,27 +5926,27 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>areej.abukar@innokat.com.sa</t>
+          <t>nader@kacst.edu.sa</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Usama Marie</t>
+          <t>badria al moutire</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>InnoKAT Saudi</t>
+          <t>4systems</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Deputy GM for Technical &amp; Operations</t>
+          <t>Mar</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -5961,27 +5961,27 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>usama.marie@innokat.com.sa</t>
+          <t>badria@4-sysit.com</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Tariq Mardawi</t>
+          <t>Hisham Muqbel</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>InnoKAT Saudi</t>
+          <t>4-systems</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Business Portal Professional Services Manager</t>
+          <t>Projects manager</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -5996,27 +5996,27 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>tariq.mardawi@innokat.com.sa</t>
+          <t>hisham.muqbel@4-sysit.com</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Mohammed Habib Uddin habib uddin</t>
+          <t>Areej Abukar</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>ABDULLA FOUAD HOLDING CO.</t>
+          <t>InnoKAT-KSA</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Mamager for private sector</t>
+          <t>Senior SharePoint Consultant</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -6031,27 +6031,27 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>habib.uddin@abdulla-fouad.com</t>
+          <t>areej.abukar@innokat.com.sa</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>mohammad alqeneh</t>
+          <t>Usama Marie</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>technology bridge</t>
+          <t>InnoKAT Saudi</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>account manager</t>
+          <t>Deputy GM for Technical &amp; Operations</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -6066,32 +6066,32 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>myousef@tb.com.sa</t>
+          <t>usama.marie@innokat.com.sa</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ghassan darbsia</t>
+          <t>Tariq Mardawi</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>4systems IT</t>
+          <t>InnoKAT Saudi</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Executive Manager</t>
+          <t>Business Portal Professional Services Manager</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>riyadh</t>
+          <t>Riyadh</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -6101,27 +6101,27 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>ghassan@4-sysit.com</t>
+          <t>tariq.mardawi@innokat.com.sa</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Ibrahim Alqaddomy</t>
+          <t>Mohammed Habib Uddin habib uddin</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Pioneer Information Technology</t>
+          <t>ABDULLA FOUAD HOLDING CO.</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Microsoft Product Manager</t>
+          <t>Mamager for private sector</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -6136,27 +6136,27 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>ibrahim@pioneer-me.com</t>
+          <t>habib.uddin@abdulla-fouad.com</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Ahmad Y. Alkhiary</t>
+          <t>mohammad alqeneh</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>ARCOM</t>
+          <t>technology bridge</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Executive VP</t>
+          <t>account manager</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -6171,27 +6171,27 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>ayalkhiary@arcom.com.sa</t>
+          <t>myousef@tb.com.sa</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Mohamed Fares</t>
+          <t>ghassan darbsia</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Perfect Presentation</t>
+          <t>4systems IT</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Application Development Manager</t>
+          <t>Executive Manager</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -6206,27 +6206,27 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>mfares@pp.com.sa</t>
+          <t>ghassan@4-sysit.com</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Ahmed Mohsen</t>
+          <t>Ibrahim Alqaddomy</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>ITS2</t>
+          <t>Pioneer Information Technology</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Security Engineer</t>
+          <t>Microsoft Product Manager</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -6241,27 +6241,27 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>eng.ahmedmohsen@gmail.com</t>
+          <t>ibrahim@pioneer-me.com</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Ismail Al-Batreekhi</t>
+          <t>Ahmad Y. Alkhiary</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Microsoft</t>
+          <t>ARCOM</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>System Eng</t>
+          <t>Executive VP</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -6276,27 +6276,27 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>v-isalb@microsoft.com</t>
+          <t>ayalkhiary@arcom.com.sa</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Ahmad Khan</t>
+          <t>Mohamed Fares</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Saudi Asahi (for Development)</t>
+          <t>Perfect Presentation</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Sr. Associate</t>
+          <t>Application Development Manager</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -6311,32 +6311,32 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>aobaidk@yahoo.com</t>
+          <t>mfares@pp.com.sa</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Sayeed Misbah</t>
+          <t>Ahmed Mohsen</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>SBM</t>
+          <t>ITS2</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Database Manager</t>
+          <t>Security Engineer</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>riyadh</t>
+          <t>Riyadh</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -6346,27 +6346,27 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>sayeedmisbah@hotmail.com</t>
+          <t>eng.ahmedmohsen@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Esam Daban</t>
+          <t>Ismail Al-Batreekhi</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Zain KSA</t>
+          <t>Microsoft</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Director, IT</t>
+          <t>System Eng</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -6381,27 +6381,27 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>esam.daban@zain.com</t>
+          <t>v-isalb@microsoft.com</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Abdurrahman Al-Jelany</t>
+          <t>Ahmad Khan</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Arriyadh Development Authority</t>
+          <t>Saudi Asahi (for Development)</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>System &amp; Servers Supervisor</t>
+          <t>Sr. Associate</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -6416,27 +6416,27 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>AOJelany@arriyadh.net</t>
+          <t>aobaidk@yahoo.com</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Manar Albawab</t>
+          <t>Sayeed Misbah</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Microsoft</t>
+          <t>SBM</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Regional IT Manager</t>
+          <t>Database Manager</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -6451,27 +6451,27 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>manar.albawab@microsoft.com</t>
+          <t>sayeedmisbah@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Ayman Hammam</t>
+          <t>Esam Daban</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>NetSoft Group</t>
+          <t>Zain KSA</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Senior Business Consultant</t>
+          <t>Director, IT</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -6486,27 +6486,27 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>ahammam@netsoftgroup.com.sa</t>
+          <t>esam.daban@zain.com</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Asif Khan</t>
+          <t>Abdurrahman Al-Jelany</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Samba Financial Group</t>
+          <t>Arriyadh Development Authority</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>IT manager</t>
+          <t>System &amp; Servers Supervisor</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -6521,27 +6521,27 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>Asif.moinuddinkhan@samba.com</t>
+          <t>AOJelany@arriyadh.net</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Mohsin Parvez</t>
+          <t>Manar Albawab</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Agility Logistics</t>
+          <t>Microsoft</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>IT Manager</t>
+          <t>Regional IT Manager</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -6556,27 +6556,27 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>mparwez@agilitylogistics.com</t>
+          <t>manar.albawab@microsoft.com</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Husam AbuMualla</t>
+          <t>Ayman Hammam</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>lcc</t>
+          <t>NetSoft Group</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Consultant</t>
+          <t>Senior Business Consultant</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -6591,27 +6591,27 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>husamcompu@yahoo.com</t>
+          <t>ahammam@netsoftgroup.com.sa</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>H Adeel Ahmed Ali</t>
+          <t>Asif Khan</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>International Company for Mobile Services</t>
+          <t>Samba Financial Group</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Network Engineer</t>
+          <t>IT manager</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -6626,27 +6626,27 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>hadeel@icms-vas.com</t>
+          <t>Asif.moinuddinkhan@samba.com</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Mohammad Bin Moammar</t>
+          <t>Mohsin Parvez</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Saudi Telecom Company (STC)</t>
+          <t>Agility Logistics</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>System Engineer</t>
+          <t>IT Manager</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -6661,27 +6661,27 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>mbinmoammar@stc.com.sa</t>
+          <t>mparwez@agilitylogistics.com</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Essam Elsayed</t>
+          <t>Husam AbuMualla</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Saudi Electricity Company</t>
+          <t>lcc</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Senior System Analyst</t>
+          <t>Consultant</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -6696,27 +6696,27 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>esayeed@se.com.sa</t>
+          <t>husamcompu@yahoo.com</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Al-Jowhara Al-Suwailem</t>
+          <t>H Adeel Ahmed Ali</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Riyad Bank</t>
+          <t>International Company for Mobile Services</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>System Technican</t>
+          <t>Network Engineer</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -6731,27 +6731,27 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>al-jowhara.al-suwailem@riyadbank.com</t>
+          <t>hadeel@icms-vas.com</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Jamal Fakrudeen</t>
+          <t>Mohammad Bin Moammar</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>STC</t>
+          <t>Saudi Telecom Company (STC)</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Programmer</t>
+          <t>System Engineer</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -6766,27 +6766,27 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>jfakrudeen@stc.com.sa</t>
+          <t>mbinmoammar@stc.com.sa</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>417</v>
+        <v>328</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Maged AlMosa</t>
+          <t>Essam Elsayed</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>STC</t>
+          <t>Saudi Electricity Company</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>Senior System Analyst</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -6801,27 +6801,27 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>mmosa@stc.com.sa</t>
+          <t>esayeed@se.com.sa</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>462</v>
+        <v>329</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Mohammed Mansour</t>
+          <t>Al-Jowhara Al-Suwailem</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>ACS</t>
+          <t>Riyad Bank</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>System Consultant</t>
+          <t>System Technican</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -6836,32 +6836,32 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>mansour@acs.com.sa</t>
+          <t>al-jowhara.al-suwailem@riyadbank.com</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>221</v>
+        <v>330</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>AbdulRahman AL Hamdan</t>
+          <t>Jamal Fakrudeen</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>SEC</t>
+          <t>STC</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>CSBCDV Mgr</t>
+          <t>Programmer</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Riyadh , 11535</t>
+          <t>Riyadh</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -6871,42 +6871,217 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>CSBCDV@se.com.sa</t>
+          <t>jfakrudeen@stc.com.sa</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
+        <v>417</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Maged AlMosa</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>STC</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Director</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Riyadh</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>mmosa@stc.com.sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>462</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Mohammed Mansour</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>ACS</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>System Consultant</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Riyadh</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>mansour@acs.com.sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>221</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>AbdulRahman AL Hamdan</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>SEC</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>CSBCDV Mgr</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Riyadh</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>CSBCDV@se.com.sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
         <v>286</v>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B188" t="inlineStr">
         <is>
           <t>Abdelaziz Abanmi</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="C188" t="inlineStr">
         <is>
           <t>Prince Sultan Cardiac Center</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
+      <c r="D188" t="inlineStr">
         <is>
           <t>IT Manager</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>Riyadh 11352</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Saudi Arabia</t>
-        </is>
-      </c>
-      <c r="G185" t="inlineStr">
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Riyadh</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
         <is>
           <t>abanmi@pscc.med.sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>185</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Abdulsalam Ghanim</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>ACS</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Product Manager</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Riyadh</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>ghanim@acs.com.sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>201</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>mostafa ali mohammed</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>ITS</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>customer services engnieer</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Riyadh</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>mostafa.fathy@sa.zain.com</t>
         </is>
       </c>
     </row>
